--- a/contents/save/사인검별자리_강화특성정리.xlsx
+++ b/contents/save/사인검별자리_강화특성정리.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A544C45-646D-492F-9290-BE50C2F6D699}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB81FBB-8DA3-4661-9C65-58B3853C55B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="특성정리" sheetId="8" r:id="rId1"/>
-    <sheet name="동방칠사" sheetId="4" r:id="rId2"/>
+    <sheet name="개요" sheetId="9" r:id="rId1"/>
+    <sheet name="특성정리" sheetId="8" r:id="rId2"/>
     <sheet name="서방칠사" sheetId="6" r:id="rId3"/>
-    <sheet name="남방칠사" sheetId="7" r:id="rId4"/>
-    <sheet name="북방칠사" sheetId="5" r:id="rId5"/>
+    <sheet name="동방칠사" sheetId="4" r:id="rId4"/>
+    <sheet name="남방칠사" sheetId="7" r:id="rId5"/>
+    <sheet name="북방칠사" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -1488,186 +1489,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>재화</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 수급 증가</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>캐릭터를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 강화할 수 있는 재화의 수급량을 늘린다.</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>제단</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 새로고침</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>제단에서</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 선택하는 능력 을 새로고침한다.</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>연꽃의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 최대 개수 증가</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>공격력</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 증가</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>공격력이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 증가한다.</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>이동속도</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 증가</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10초마다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 한번씩 연꽃을 얻는다.</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>최대 체력</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 증가</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>최대 기력</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 증가</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>적에게</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 받는 데미지가 감소한다.</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>최대 체력이 증가한다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1678,6 +1499,54 @@
   <si>
     <t>3% / 5% / 7% / 9%
 / 11% / 13% / 15%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>재화 수급 증가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터를 강화할 수 있는 재화의 수급량을 늘린다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제단 새로고침</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제단에서 선택하는 능력 을 새로고침한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>연꽃의 최대 개수 증가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 증가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력이 증가한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동속도 증가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10초마다 한번씩 연꽃을 얻는다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 체력 증가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 기력 증가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>적에게 받는 데미지가 감소한다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1688,7 +1557,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1868,59 +1737,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
@@ -1928,20 +1744,71 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
-      <family val="2"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <name val="맑은 고딕"/>
-      <family val="2"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="28"/>
-      <color theme="10"/>
+      <sz val="16"/>
+      <color rgb="FF3366CC"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -2128,7 +1995,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2231,103 +2098,89 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="31" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="29" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="8" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2608,308 +2461,327 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EFC4A23-AFFF-4834-B592-0A5F6FC66E6A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DF1F5AC-4097-4E74-A682-AFCB5318A549}">
   <dimension ref="A1:G66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="7" width="28.625" customWidth="1"/>
+    <col min="1" max="1" width="24.625" style="55" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.875" style="55" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.25" style="55" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" style="55" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5" style="55" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="28.625" style="55" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+    <row r="1" spans="1:7" ht="39" customHeight="1">
+      <c r="A1" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="57" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="54" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:7" ht="27" customHeight="1">
+      <c r="A2" s="56" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="56" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="56" t="s">
         <v>136</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="56" t="s">
         <v>139</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="56" t="s">
         <v>132</v>
       </c>
-      <c r="G2" s="57"/>
-    </row>
-    <row r="3" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="58" t="s">
+      <c r="G2" s="54"/>
+    </row>
+    <row r="3" spans="1:7" ht="78.75">
+      <c r="A3" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="47" t="s">
         <v>141</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="57" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" s="58">
+        <v>3</v>
+      </c>
+      <c r="E3" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="F3" s="57" t="s">
+        <v>156</v>
+      </c>
+      <c r="G3" s="59"/>
+    </row>
+    <row r="4" spans="1:7" ht="52.5">
+      <c r="A4" s="48"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="57" t="s">
+        <v>157</v>
+      </c>
+      <c r="D4" s="58">
+        <v>2</v>
+      </c>
+      <c r="E4" s="60">
+        <v>44928</v>
+      </c>
+      <c r="F4" s="57" t="s">
+        <v>158</v>
+      </c>
+      <c r="G4" s="59"/>
+    </row>
+    <row r="5" spans="1:7" ht="26.25">
+      <c r="A5" s="50"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5" s="58">
+        <v>2</v>
+      </c>
+      <c r="E5" s="60">
+        <v>44928</v>
+      </c>
+      <c r="F5" s="57" t="s">
+        <v>159</v>
+      </c>
+      <c r="G5" s="59"/>
+    </row>
+    <row r="6" spans="1:7" ht="26.25">
+      <c r="A6" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="57" t="s">
+        <v>160</v>
+      </c>
+      <c r="D6" s="58">
+        <v>3</v>
+      </c>
+      <c r="E6" s="58" t="s">
+        <v>144</v>
+      </c>
+      <c r="F6" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="G6" s="61"/>
+    </row>
+    <row r="7" spans="1:7" ht="26.25">
+      <c r="A7" s="52"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="57" t="s">
+        <v>162</v>
+      </c>
+      <c r="D7" s="58">
+        <v>3</v>
+      </c>
+      <c r="E7" s="58" t="s">
+        <v>147</v>
+      </c>
+      <c r="F7" s="57" t="s">
+        <v>146</v>
+      </c>
+      <c r="G7" s="61"/>
+    </row>
+    <row r="8" spans="1:7" ht="52.5">
+      <c r="A8" s="52"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="62" t="s">
+        <v>151</v>
+      </c>
+      <c r="D8" s="36">
+        <v>1</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="F8" s="57" t="s">
+        <v>163</v>
+      </c>
+      <c r="G8" s="59"/>
+    </row>
+    <row r="9" spans="1:7" ht="26.25">
+      <c r="A9" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9" s="57" t="s">
+        <v>164</v>
+      </c>
+      <c r="D9" s="58">
+        <v>3</v>
+      </c>
+      <c r="E9" s="58" t="s">
+        <v>144</v>
+      </c>
+      <c r="F9" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="D3" s="41">
+      <c r="G9" s="63"/>
+    </row>
+    <row r="10" spans="1:7" ht="26.25">
+      <c r="A10" s="52"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="D10" s="58">
         <v>3</v>
       </c>
-      <c r="E3" s="42" t="s">
-        <v>148</v>
-      </c>
-      <c r="F3" s="40" t="s">
+      <c r="E10" s="58" t="s">
+        <v>144</v>
+      </c>
+      <c r="F10" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="G3" s="37"/>
-    </row>
-    <row r="4" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="59"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="43" t="s">
+      <c r="G10" s="63"/>
+    </row>
+    <row r="11" spans="1:7" ht="78.75">
+      <c r="A11" s="52"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="57" t="s">
+        <v>140</v>
+      </c>
+      <c r="D11" s="58">
+        <v>1</v>
+      </c>
+      <c r="E11" s="58">
+        <v>1</v>
+      </c>
+      <c r="F11" s="57" t="s">
+        <v>142</v>
+      </c>
+      <c r="G11" s="61"/>
+    </row>
+    <row r="12" spans="1:7" ht="52.5">
+      <c r="A12" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="C12" s="62" t="s">
+        <v>143</v>
+      </c>
+      <c r="D12" s="36">
+        <v>7</v>
+      </c>
+      <c r="E12" s="58" t="s">
         <v>154</v>
       </c>
-      <c r="D4" s="42">
-        <v>2</v>
-      </c>
-      <c r="E4" s="44">
-        <v>44928</v>
-      </c>
-      <c r="F4" s="40" t="s">
-        <v>155</v>
-      </c>
-      <c r="G4" s="37"/>
-    </row>
-    <row r="5" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="60"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="43" t="s">
-        <v>145</v>
-      </c>
-      <c r="D5" s="42">
-        <v>2</v>
-      </c>
-      <c r="E5" s="45">
-        <v>44928</v>
-      </c>
-      <c r="F5" s="40" t="s">
-        <v>156</v>
-      </c>
-      <c r="G5" s="37"/>
-    </row>
-    <row r="6" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="61" t="s">
-        <v>127</v>
-      </c>
-      <c r="B6" s="53" t="s">
-        <v>134</v>
-      </c>
-      <c r="C6" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="D6" s="46">
-        <v>3</v>
-      </c>
-      <c r="E6" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="F6" s="40" t="s">
-        <v>158</v>
-      </c>
-      <c r="G6" s="38"/>
-    </row>
-    <row r="7" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="61"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="40" t="s">
-        <v>159</v>
-      </c>
-      <c r="D7" s="46">
-        <v>3</v>
-      </c>
-      <c r="E7" s="42" t="s">
-        <v>147</v>
-      </c>
-      <c r="F7" s="47" t="s">
-        <v>146</v>
-      </c>
-      <c r="G7" s="39"/>
-    </row>
-    <row r="8" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="61"/>
-      <c r="B8" s="55"/>
-      <c r="C8" s="52" t="s">
-        <v>151</v>
-      </c>
-      <c r="D8" s="48">
-        <v>1</v>
-      </c>
-      <c r="E8" s="49" t="s">
-        <v>150</v>
-      </c>
-      <c r="F8" s="40" t="s">
-        <v>160</v>
-      </c>
-      <c r="G8" s="37"/>
-    </row>
-    <row r="9" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="61" t="s">
-        <v>128</v>
-      </c>
-      <c r="B9" s="53" t="s">
-        <v>138</v>
-      </c>
-      <c r="C9" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="D9" s="50">
-        <v>3</v>
-      </c>
-      <c r="E9" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="F9" s="52" t="s">
-        <v>164</v>
-      </c>
-      <c r="G9" s="36"/>
-    </row>
-    <row r="10" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="61"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="43" t="s">
-        <v>162</v>
-      </c>
-      <c r="D10" s="50">
-        <v>3</v>
-      </c>
-      <c r="E10" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="F10" s="52" t="s">
-        <v>165</v>
-      </c>
-      <c r="G10" s="36"/>
-    </row>
-    <row r="11" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="61"/>
-      <c r="B11" s="55"/>
-      <c r="C11" s="43" t="s">
-        <v>140</v>
-      </c>
-      <c r="D11" s="50">
-        <v>1</v>
-      </c>
-      <c r="E11" s="42">
-        <v>1</v>
-      </c>
-      <c r="F11" s="47" t="s">
-        <v>142</v>
-      </c>
-      <c r="G11" s="39"/>
-    </row>
-    <row r="12" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="61" t="s">
-        <v>129</v>
-      </c>
-      <c r="B12" s="53" t="s">
-        <v>137</v>
-      </c>
-      <c r="C12" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="D12" s="49">
-        <v>7</v>
-      </c>
-      <c r="E12" s="42" t="s">
+      <c r="F12" s="57" t="s">
         <v>166</v>
       </c>
-      <c r="F12" s="40" t="s">
-        <v>163</v>
-      </c>
-      <c r="G12" s="38"/>
-    </row>
-    <row r="13" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="61"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="38"/>
-    </row>
-    <row r="14" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="61"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="36"/>
-    </row>
-    <row r="15" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="G12" s="61"/>
+    </row>
+    <row r="13" spans="1:7" ht="26.25">
+      <c r="A13" s="52"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="61"/>
+    </row>
+    <row r="14" spans="1:7" ht="26.25">
+      <c r="A14" s="52"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="63"/>
+    </row>
+    <row r="15" spans="1:7" ht="99.95" customHeight="1"/>
+    <row r="16" spans="1:7" ht="99.95" customHeight="1"/>
+    <row r="17" s="55" customFormat="1" ht="99.95" customHeight="1"/>
+    <row r="18" s="55" customFormat="1" ht="99.95" customHeight="1"/>
+    <row r="19" s="55" customFormat="1" ht="99.95" customHeight="1"/>
+    <row r="20" s="55" customFormat="1" ht="99.95" customHeight="1"/>
+    <row r="21" s="55" customFormat="1" ht="99.95" customHeight="1"/>
+    <row r="22" s="55" customFormat="1" ht="99.95" customHeight="1"/>
+    <row r="23" s="55" customFormat="1" ht="99.95" customHeight="1"/>
+    <row r="24" s="55" customFormat="1" ht="99.95" customHeight="1"/>
+    <row r="25" s="55" customFormat="1" ht="99.95" customHeight="1"/>
+    <row r="26" s="55" customFormat="1" ht="99.95" customHeight="1"/>
+    <row r="27" s="55" customFormat="1" ht="99.95" customHeight="1"/>
+    <row r="28" s="55" customFormat="1" ht="99.95" customHeight="1"/>
+    <row r="29" s="55" customFormat="1" ht="99.95" customHeight="1"/>
+    <row r="30" s="55" customFormat="1" ht="99.95" customHeight="1"/>
+    <row r="31" s="55" customFormat="1" ht="99.95" customHeight="1"/>
+    <row r="32" s="55" customFormat="1" ht="99.95" customHeight="1"/>
+    <row r="33" s="55" customFormat="1" ht="99.95" customHeight="1"/>
+    <row r="34" s="55" customFormat="1" ht="99.95" customHeight="1"/>
+    <row r="35" s="55" customFormat="1" ht="99.95" customHeight="1"/>
+    <row r="36" s="55" customFormat="1" ht="99.95" customHeight="1"/>
+    <row r="37" s="55" customFormat="1" ht="99.95" customHeight="1"/>
+    <row r="38" s="55" customFormat="1" ht="99.95" customHeight="1"/>
+    <row r="39" s="55" customFormat="1" ht="99.95" customHeight="1"/>
+    <row r="40" s="55" customFormat="1" ht="99.95" customHeight="1"/>
+    <row r="41" s="55" customFormat="1" ht="99.95" customHeight="1"/>
+    <row r="42" s="55" customFormat="1" ht="99.95" customHeight="1"/>
+    <row r="43" s="55" customFormat="1" ht="99.95" customHeight="1"/>
+    <row r="44" s="55" customFormat="1" ht="99.95" customHeight="1"/>
+    <row r="45" s="55" customFormat="1" ht="99.95" customHeight="1"/>
+    <row r="46" s="55" customFormat="1" ht="99.95" customHeight="1"/>
+    <row r="47" s="55" customFormat="1" ht="99.95" customHeight="1"/>
+    <row r="48" s="55" customFormat="1" ht="99.95" customHeight="1"/>
+    <row r="49" s="55" customFormat="1" ht="99.95" customHeight="1"/>
+    <row r="50" s="55" customFormat="1" ht="99.95" customHeight="1"/>
+    <row r="51" s="55" customFormat="1" ht="99.95" customHeight="1"/>
+    <row r="52" s="55" customFormat="1" ht="99.95" customHeight="1"/>
+    <row r="53" s="55" customFormat="1" ht="99.95" customHeight="1"/>
+    <row r="54" s="55" customFormat="1" ht="99.95" customHeight="1"/>
+    <row r="55" s="55" customFormat="1" ht="99.95" customHeight="1"/>
+    <row r="56" s="55" customFormat="1" ht="99.95" customHeight="1"/>
+    <row r="57" s="55" customFormat="1" ht="99.95" customHeight="1"/>
+    <row r="58" s="55" customFormat="1" ht="99.95" customHeight="1"/>
+    <row r="59" s="55" customFormat="1" ht="99.95" customHeight="1"/>
+    <row r="60" s="55" customFormat="1" ht="99.95" customHeight="1"/>
+    <row r="61" s="55" customFormat="1" ht="99.95" customHeight="1"/>
+    <row r="62" s="55" customFormat="1" ht="99.95" customHeight="1"/>
+    <row r="63" s="55" customFormat="1" ht="99.95" customHeight="1"/>
+    <row r="64" s="55" customFormat="1" ht="99.95" customHeight="1"/>
+    <row r="65" s="55" customFormat="1" ht="99.95" customHeight="1"/>
+    <row r="66" s="55" customFormat="1" ht="99.95" customHeight="1"/>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="G1:G2"/>
@@ -2929,32 +2801,261 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87CB7697-9BAE-441D-8B68-F187EE9BABA3}">
+  <dimension ref="A1:F61"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="6" width="28.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="39" customHeight="1">
+      <c r="A1" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="27" customHeight="1" thickBot="1">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="37"/>
+    </row>
+    <row r="3" spans="1:6" ht="99.95" customHeight="1" thickBot="1">
+      <c r="A3" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="99.95" customHeight="1" thickBot="1">
+      <c r="A4" s="43"/>
+      <c r="B4" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="99.95" customHeight="1" thickBot="1">
+      <c r="A5" s="43"/>
+      <c r="B5" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="99.95" customHeight="1" thickBot="1">
+      <c r="A6" s="43"/>
+      <c r="B6" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" s="26"/>
+    </row>
+    <row r="7" spans="1:6" ht="99.95" customHeight="1" thickBot="1">
+      <c r="A7" s="43"/>
+      <c r="B7" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="F7" s="34"/>
+    </row>
+    <row r="8" spans="1:6" ht="99.95" customHeight="1" thickBot="1">
+      <c r="A8" s="43"/>
+      <c r="B8" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="F8" s="26"/>
+    </row>
+    <row r="9" spans="1:6" ht="99.95" customHeight="1" thickBot="1">
+      <c r="A9" s="44"/>
+      <c r="B9" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" s="34"/>
+    </row>
+    <row r="10" spans="1:6" ht="99.95" customHeight="1">
+      <c r="F10" s="35"/>
+    </row>
+    <row r="11" spans="1:6" ht="99.95" customHeight="1"/>
+    <row r="12" spans="1:6" ht="99.95" customHeight="1"/>
+    <row r="13" spans="1:6" ht="99.95" customHeight="1"/>
+    <row r="14" spans="1:6" ht="99.95" customHeight="1"/>
+    <row r="15" spans="1:6" ht="99.95" customHeight="1"/>
+    <row r="16" spans="1:6" ht="99.95" customHeight="1"/>
+    <row r="17" ht="99.95" customHeight="1"/>
+    <row r="18" ht="99.95" customHeight="1"/>
+    <row r="19" ht="99.95" customHeight="1"/>
+    <row r="20" ht="99.95" customHeight="1"/>
+    <row r="21" ht="99.95" customHeight="1"/>
+    <row r="22" ht="99.95" customHeight="1"/>
+    <row r="23" ht="99.95" customHeight="1"/>
+    <row r="24" ht="99.95" customHeight="1"/>
+    <row r="25" ht="99.95" customHeight="1"/>
+    <row r="26" ht="99.95" customHeight="1"/>
+    <row r="27" ht="99.95" customHeight="1"/>
+    <row r="28" ht="99.95" customHeight="1"/>
+    <row r="29" ht="99.95" customHeight="1"/>
+    <row r="30" ht="99.95" customHeight="1"/>
+    <row r="31" ht="99.95" customHeight="1"/>
+    <row r="32" ht="99.95" customHeight="1"/>
+    <row r="33" ht="99.95" customHeight="1"/>
+    <row r="34" ht="99.95" customHeight="1"/>
+    <row r="35" ht="99.95" customHeight="1"/>
+    <row r="36" ht="99.95" customHeight="1"/>
+    <row r="37" ht="99.95" customHeight="1"/>
+    <row r="38" ht="99.95" customHeight="1"/>
+    <row r="39" ht="99.95" customHeight="1"/>
+    <row r="40" ht="99.95" customHeight="1"/>
+    <row r="41" ht="99.95" customHeight="1"/>
+    <row r="42" ht="99.95" customHeight="1"/>
+    <row r="43" ht="99.95" customHeight="1"/>
+    <row r="44" ht="99.95" customHeight="1"/>
+    <row r="45" ht="99.95" customHeight="1"/>
+    <row r="46" ht="99.95" customHeight="1"/>
+    <row r="47" ht="99.95" customHeight="1"/>
+    <row r="48" ht="99.95" customHeight="1"/>
+    <row r="49" ht="99.95" customHeight="1"/>
+    <row r="50" ht="99.95" customHeight="1"/>
+    <row r="51" ht="99.95" customHeight="1"/>
+    <row r="52" ht="99.95" customHeight="1"/>
+    <row r="53" ht="99.95" customHeight="1"/>
+    <row r="54" ht="99.95" customHeight="1"/>
+    <row r="55" ht="99.95" customHeight="1"/>
+    <row r="56" ht="99.95" customHeight="1"/>
+    <row r="57" ht="99.95" customHeight="1"/>
+    <row r="58" ht="99.95" customHeight="1"/>
+    <row r="59" ht="99.95" customHeight="1"/>
+    <row r="60" ht="99.95" customHeight="1"/>
+    <row r="61" ht="99.95" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A3:A9"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{736BC855-067D-441D-9BA0-735EE30CE331}">
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="6" width="28.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+    <row r="1" spans="1:6" ht="39" customHeight="1">
+      <c r="A1" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="57" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="37" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="27" customHeight="1">
       <c r="A2" s="33" t="s">
         <v>121</v>
       </c>
@@ -2970,10 +3071,10 @@
       <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="57"/>
-    </row>
-    <row r="3" spans="1:6" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="62" t="s">
+      <c r="F2" s="37"/>
+    </row>
+    <row r="3" spans="1:6" ht="99.95" customHeight="1" thickBot="1">
+      <c r="A3" s="39" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -2990,8 +3091,8 @@
       </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="63"/>
+    <row r="4" spans="1:6" ht="99.95" customHeight="1" thickBot="1">
+      <c r="A4" s="40"/>
       <c r="B4" s="13" t="s">
         <v>15</v>
       </c>
@@ -3006,8 +3107,8 @@
       </c>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="63"/>
+    <row r="5" spans="1:6" ht="99.95" customHeight="1" thickBot="1">
+      <c r="A5" s="40"/>
       <c r="B5" s="13" t="s">
         <v>16</v>
       </c>
@@ -3022,8 +3123,8 @@
       </c>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:6" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="63"/>
+    <row r="6" spans="1:6" ht="99.95" customHeight="1" thickBot="1">
+      <c r="A6" s="40"/>
       <c r="B6" s="13" t="s">
         <v>18</v>
       </c>
@@ -3038,8 +3139,8 @@
       </c>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="63"/>
+    <row r="7" spans="1:6" ht="99.95" customHeight="1" thickBot="1">
+      <c r="A7" s="40"/>
       <c r="B7" s="13" t="s">
         <v>20</v>
       </c>
@@ -3054,8 +3155,8 @@
       </c>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:6" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="63"/>
+    <row r="8" spans="1:6" ht="99.95" customHeight="1" thickBot="1">
+      <c r="A8" s="40"/>
       <c r="B8" s="13" t="s">
         <v>21</v>
       </c>
@@ -3070,8 +3171,8 @@
       </c>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:6" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="64"/>
+    <row r="9" spans="1:6" ht="99.95" customHeight="1" thickBot="1">
+      <c r="A9" s="41"/>
       <c r="B9" s="13" t="s">
         <v>22</v>
       </c>
@@ -3086,58 +3187,58 @@
       </c>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:6" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:6" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:6" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:6" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:6" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:6" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:6" ht="99.95" customHeight="1"/>
+    <row r="11" spans="1:6" ht="99.95" customHeight="1"/>
+    <row r="12" spans="1:6" ht="99.95" customHeight="1"/>
+    <row r="13" spans="1:6" ht="99.95" customHeight="1"/>
+    <row r="14" spans="1:6" ht="99.95" customHeight="1"/>
+    <row r="15" spans="1:6" ht="99.95" customHeight="1"/>
+    <row r="16" spans="1:6" ht="99.95" customHeight="1"/>
+    <row r="17" ht="99.95" customHeight="1"/>
+    <row r="18" ht="99.95" customHeight="1"/>
+    <row r="19" ht="99.95" customHeight="1"/>
+    <row r="20" ht="99.95" customHeight="1"/>
+    <row r="21" ht="99.95" customHeight="1"/>
+    <row r="22" ht="99.95" customHeight="1"/>
+    <row r="23" ht="99.95" customHeight="1"/>
+    <row r="24" ht="99.95" customHeight="1"/>
+    <row r="25" ht="99.95" customHeight="1"/>
+    <row r="26" ht="99.95" customHeight="1"/>
+    <row r="27" ht="99.95" customHeight="1"/>
+    <row r="28" ht="99.95" customHeight="1"/>
+    <row r="29" ht="99.95" customHeight="1"/>
+    <row r="30" ht="99.95" customHeight="1"/>
+    <row r="31" ht="99.95" customHeight="1"/>
+    <row r="32" ht="99.95" customHeight="1"/>
+    <row r="33" ht="99.95" customHeight="1"/>
+    <row r="34" ht="99.95" customHeight="1"/>
+    <row r="35" ht="99.95" customHeight="1"/>
+    <row r="36" ht="99.95" customHeight="1"/>
+    <row r="37" ht="99.95" customHeight="1"/>
+    <row r="38" ht="99.95" customHeight="1"/>
+    <row r="39" ht="99.95" customHeight="1"/>
+    <row r="40" ht="99.95" customHeight="1"/>
+    <row r="41" ht="99.95" customHeight="1"/>
+    <row r="42" ht="99.95" customHeight="1"/>
+    <row r="43" ht="99.95" customHeight="1"/>
+    <row r="44" ht="99.95" customHeight="1"/>
+    <row r="45" ht="99.95" customHeight="1"/>
+    <row r="46" ht="99.95" customHeight="1"/>
+    <row r="47" ht="99.95" customHeight="1"/>
+    <row r="48" ht="99.95" customHeight="1"/>
+    <row r="49" ht="99.95" customHeight="1"/>
+    <row r="50" ht="99.95" customHeight="1"/>
+    <row r="51" ht="99.95" customHeight="1"/>
+    <row r="52" ht="99.95" customHeight="1"/>
+    <row r="53" ht="99.95" customHeight="1"/>
+    <row r="54" ht="99.95" customHeight="1"/>
+    <row r="55" ht="99.95" customHeight="1"/>
+    <row r="56" ht="99.95" customHeight="1"/>
+    <row r="57" ht="99.95" customHeight="1"/>
+    <row r="58" ht="99.95" customHeight="1"/>
+    <row r="59" ht="99.95" customHeight="1"/>
+    <row r="60" ht="99.95" customHeight="1"/>
+    <row r="61" ht="99.95" customHeight="1"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
@@ -3162,32 +3263,32 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87CB7697-9BAE-441D-8B68-F187EE9BABA3}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E7F101-91AE-459C-A3D1-5C75300FF39C}">
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F1" sqref="F1:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="6" width="28.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="57" t="s">
+    <row r="1" spans="1:6" ht="39" customHeight="1">
+      <c r="A1" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="37" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="27" customHeight="1" thickBot="1">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -3203,182 +3304,176 @@
       <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="57"/>
-    </row>
-    <row r="3" spans="1:6" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="E3" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="66"/>
-      <c r="B4" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="F4" s="34" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="66"/>
-      <c r="B5" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="F5" s="34" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="66"/>
-      <c r="B6" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="F6" s="26"/>
-    </row>
-    <row r="7" spans="1:6" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="66"/>
-      <c r="B7" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="F7" s="34"/>
-    </row>
-    <row r="8" spans="1:6" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="66"/>
-      <c r="B8" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="F8" s="26"/>
-    </row>
-    <row r="9" spans="1:6" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="67"/>
-      <c r="B9" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="F9" s="34"/>
-    </row>
-    <row r="10" spans="1:6" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F10" s="35"/>
-    </row>
-    <row r="11" spans="1:6" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:6" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:6" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:6" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:6" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:6" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="F2" s="37"/>
+    </row>
+    <row r="3" spans="1:6" ht="99.95" customHeight="1" thickBot="1">
+      <c r="A3" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" ht="99.95" customHeight="1" thickBot="1">
+      <c r="A4" s="40"/>
+      <c r="B4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" ht="99.95" customHeight="1" thickBot="1">
+      <c r="A5" s="40"/>
+      <c r="B5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" ht="99.95" customHeight="1" thickBot="1">
+      <c r="A6" s="40"/>
+      <c r="B6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" ht="99.95" customHeight="1" thickBot="1">
+      <c r="A7" s="40"/>
+      <c r="B7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" ht="99.95" customHeight="1" thickBot="1">
+      <c r="A8" s="40"/>
+      <c r="B8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" ht="99.95" customHeight="1" thickBot="1">
+      <c r="A9" s="41"/>
+      <c r="B9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" ht="99.95" customHeight="1">
+      <c r="A10" s="30"/>
+    </row>
+    <row r="11" spans="1:6" ht="99.95" customHeight="1"/>
+    <row r="12" spans="1:6" ht="99.95" customHeight="1"/>
+    <row r="13" spans="1:6" ht="99.95" customHeight="1"/>
+    <row r="14" spans="1:6" ht="99.95" customHeight="1"/>
+    <row r="15" spans="1:6" ht="99.95" customHeight="1"/>
+    <row r="16" spans="1:6" ht="99.95" customHeight="1"/>
+    <row r="17" ht="99.95" customHeight="1"/>
+    <row r="18" ht="99.95" customHeight="1"/>
+    <row r="19" ht="99.95" customHeight="1"/>
+    <row r="20" ht="99.95" customHeight="1"/>
+    <row r="21" ht="99.95" customHeight="1"/>
+    <row r="22" ht="99.95" customHeight="1"/>
+    <row r="23" ht="99.95" customHeight="1"/>
+    <row r="24" ht="99.95" customHeight="1"/>
+    <row r="25" ht="99.95" customHeight="1"/>
+    <row r="26" ht="99.95" customHeight="1"/>
+    <row r="27" ht="99.95" customHeight="1"/>
+    <row r="28" ht="99.95" customHeight="1"/>
+    <row r="29" ht="99.95" customHeight="1"/>
+    <row r="30" ht="99.95" customHeight="1"/>
+    <row r="31" ht="99.95" customHeight="1"/>
+    <row r="32" ht="99.95" customHeight="1"/>
+    <row r="33" ht="99.95" customHeight="1"/>
+    <row r="34" ht="99.95" customHeight="1"/>
+    <row r="35" ht="99.95" customHeight="1"/>
+    <row r="36" ht="99.95" customHeight="1"/>
+    <row r="37" ht="99.95" customHeight="1"/>
+    <row r="38" ht="99.95" customHeight="1"/>
+    <row r="39" ht="99.95" customHeight="1"/>
+    <row r="40" ht="99.95" customHeight="1"/>
+    <row r="41" ht="99.95" customHeight="1"/>
+    <row r="42" ht="99.95" customHeight="1"/>
+    <row r="43" ht="99.95" customHeight="1"/>
+    <row r="44" ht="99.95" customHeight="1"/>
+    <row r="45" ht="99.95" customHeight="1"/>
+    <row r="46" ht="99.95" customHeight="1"/>
+    <row r="47" ht="99.95" customHeight="1"/>
+    <row r="48" ht="99.95" customHeight="1"/>
+    <row r="49" ht="99.95" customHeight="1"/>
+    <row r="50" ht="99.95" customHeight="1"/>
+    <row r="51" ht="99.95" customHeight="1"/>
+    <row r="52" ht="99.95" customHeight="1"/>
+    <row r="53" ht="99.95" customHeight="1"/>
+    <row r="54" ht="99.95" customHeight="1"/>
+    <row r="55" ht="99.95" customHeight="1"/>
+    <row r="56" ht="99.95" customHeight="1"/>
+    <row r="57" ht="99.95" customHeight="1"/>
+    <row r="58" ht="99.95" customHeight="1"/>
+    <row r="59" ht="99.95" customHeight="1"/>
+    <row r="60" ht="99.95" customHeight="1"/>
+    <row r="61" ht="99.95" customHeight="1"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
@@ -3391,230 +3486,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E7F101-91AE-459C-A3D1-5C75300FF39C}">
-  <dimension ref="A1:F61"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="6" width="28.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="57" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="57"/>
-    </row>
-    <row r="3" spans="1:6" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="68" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="63"/>
-      <c r="B4" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="1:6" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="63"/>
-      <c r="B5" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="63"/>
-      <c r="B6" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="63"/>
-      <c r="B7" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:6" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="63"/>
-      <c r="B8" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="1:6" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="64"/>
-      <c r="B9" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="1:6" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="30"/>
-    </row>
-    <row r="11" spans="1:6" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:6" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:6" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:6" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:6" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:6" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A3:A9"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51E67C81-D6D1-4F5E-A4D5-5CF374AEE67C}">
   <dimension ref="A1:F61"/>
   <sheetViews>
@@ -3622,24 +3494,24 @@
       <selection activeCell="F1" sqref="F1:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="6" width="28.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+    <row r="1" spans="1:6" ht="39" customHeight="1">
+      <c r="A1" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="57" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="37" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="27" customHeight="1" thickBot="1">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -3655,10 +3527,10 @@
       <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="57"/>
-    </row>
-    <row r="3" spans="1:6" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="68" t="s">
+      <c r="F2" s="37"/>
+    </row>
+    <row r="3" spans="1:6" ht="99.95" customHeight="1" thickBot="1">
+      <c r="A3" s="45" t="s">
         <v>78</v>
       </c>
       <c r="B3" s="21" t="s">
@@ -3675,8 +3547,8 @@
       </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="63"/>
+    <row r="4" spans="1:6" ht="99.95" customHeight="1" thickBot="1">
+      <c r="A4" s="40"/>
       <c r="B4" s="21" t="s">
         <v>25</v>
       </c>
@@ -3691,8 +3563,8 @@
       </c>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="63"/>
+    <row r="5" spans="1:6" ht="99.95" customHeight="1" thickBot="1">
+      <c r="A5" s="40"/>
       <c r="B5" s="21" t="s">
         <v>27</v>
       </c>
@@ -3707,8 +3579,8 @@
       </c>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:6" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="63"/>
+    <row r="6" spans="1:6" ht="99.95" customHeight="1" thickBot="1">
+      <c r="A6" s="40"/>
       <c r="B6" s="21" t="s">
         <v>29</v>
       </c>
@@ -3723,8 +3595,8 @@
       </c>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="63"/>
+    <row r="7" spans="1:6" ht="99.95" customHeight="1" thickBot="1">
+      <c r="A7" s="40"/>
       <c r="B7" s="21" t="s">
         <v>31</v>
       </c>
@@ -3739,8 +3611,8 @@
       </c>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:6" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="63"/>
+    <row r="8" spans="1:6" ht="99.95" customHeight="1" thickBot="1">
+      <c r="A8" s="40"/>
       <c r="B8" s="21" t="s">
         <v>33</v>
       </c>
@@ -3755,8 +3627,8 @@
       </c>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:6" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="64"/>
+    <row r="9" spans="1:6" ht="99.95" customHeight="1" thickBot="1">
+      <c r="A9" s="41"/>
       <c r="B9" s="21" t="s">
         <v>35</v>
       </c>
@@ -3771,58 +3643,58 @@
       </c>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:6" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:6" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:6" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:6" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:6" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:6" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:6" ht="99.95" customHeight="1"/>
+    <row r="11" spans="1:6" ht="99.95" customHeight="1"/>
+    <row r="12" spans="1:6" ht="99.95" customHeight="1"/>
+    <row r="13" spans="1:6" ht="99.95" customHeight="1"/>
+    <row r="14" spans="1:6" ht="99.95" customHeight="1"/>
+    <row r="15" spans="1:6" ht="99.95" customHeight="1"/>
+    <row r="16" spans="1:6" ht="99.95" customHeight="1"/>
+    <row r="17" ht="99.95" customHeight="1"/>
+    <row r="18" ht="99.95" customHeight="1"/>
+    <row r="19" ht="99.95" customHeight="1"/>
+    <row r="20" ht="99.95" customHeight="1"/>
+    <row r="21" ht="99.95" customHeight="1"/>
+    <row r="22" ht="99.95" customHeight="1"/>
+    <row r="23" ht="99.95" customHeight="1"/>
+    <row r="24" ht="99.95" customHeight="1"/>
+    <row r="25" ht="99.95" customHeight="1"/>
+    <row r="26" ht="99.95" customHeight="1"/>
+    <row r="27" ht="99.95" customHeight="1"/>
+    <row r="28" ht="99.95" customHeight="1"/>
+    <row r="29" ht="99.95" customHeight="1"/>
+    <row r="30" ht="99.95" customHeight="1"/>
+    <row r="31" ht="99.95" customHeight="1"/>
+    <row r="32" ht="99.95" customHeight="1"/>
+    <row r="33" ht="99.95" customHeight="1"/>
+    <row r="34" ht="99.95" customHeight="1"/>
+    <row r="35" ht="99.95" customHeight="1"/>
+    <row r="36" ht="99.95" customHeight="1"/>
+    <row r="37" ht="99.95" customHeight="1"/>
+    <row r="38" ht="99.95" customHeight="1"/>
+    <row r="39" ht="99.95" customHeight="1"/>
+    <row r="40" ht="99.95" customHeight="1"/>
+    <row r="41" ht="99.95" customHeight="1"/>
+    <row r="42" ht="99.95" customHeight="1"/>
+    <row r="43" ht="99.95" customHeight="1"/>
+    <row r="44" ht="99.95" customHeight="1"/>
+    <row r="45" ht="99.95" customHeight="1"/>
+    <row r="46" ht="99.95" customHeight="1"/>
+    <row r="47" ht="99.95" customHeight="1"/>
+    <row r="48" ht="99.95" customHeight="1"/>
+    <row r="49" ht="99.95" customHeight="1"/>
+    <row r="50" ht="99.95" customHeight="1"/>
+    <row r="51" ht="99.95" customHeight="1"/>
+    <row r="52" ht="99.95" customHeight="1"/>
+    <row r="53" ht="99.95" customHeight="1"/>
+    <row r="54" ht="99.95" customHeight="1"/>
+    <row r="55" ht="99.95" customHeight="1"/>
+    <row r="56" ht="99.95" customHeight="1"/>
+    <row r="57" ht="99.95" customHeight="1"/>
+    <row r="58" ht="99.95" customHeight="1"/>
+    <row r="59" ht="99.95" customHeight="1"/>
+    <row r="60" ht="99.95" customHeight="1"/>
+    <row r="61" ht="99.95" customHeight="1"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
